--- a/lib/PHPExcel/templates/OT_.Ma.xlsx
+++ b/lib/PHPExcel/templates/OT_.Ma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75566599-60DE-4549-9942-5995C70BF2A6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F76453-99CC-4AF5-A41B-08E34C56B1FB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,6 +470,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,30 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -519,7 +537,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -555,80 +578,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>162962</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376B54B1-1CF3-4563-8CA0-5872E8592DCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="314325"/>
-          <a:ext cx="743987" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -654,7 +603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -677,39 +626,34 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162962</xdr:colOff>
+      <xdr:colOff>349955</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
+        <xdr:cNvPr id="6" name="Image 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9964A9C6-3E43-4559-9B03-03EB8D8FC535}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D88660B-E7FC-4807-B2F2-D51DF14AAFB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -723,16 +667,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="314325"/>
-          <a:ext cx="743987" cy="762000"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="930980" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -741,21 +682,16 @@
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -783,7 +719,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -802,6 +738,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>349955</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2493FC9B-3C4C-4360-A7BA-92436221D38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="930980" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -871,7 +868,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="2016 W43"/>
+      <sheetName val="2016 W49"/>
       <sheetName val="DEVIS"/>
       <sheetName val="CLIENTS"/>
       <sheetName val="TEchnip"/>
@@ -879,13 +876,24 @@
       <sheetName val="A&amp;D"/>
       <sheetName val="SBER"/>
       <sheetName val="Safran AE"/>
+      <sheetName val="Otto Fuchs"/>
+      <sheetName val="Listes"/>
+      <sheetName val="2016 W43"/>
       <sheetName val="Usinage MRI"/>
-      <sheetName val="Listes"/>
+      <sheetName val="2016 W40"/>
+      <sheetName val="2016 W45"/>
+      <sheetName val="2017 W01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2">
+            <v>8001</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -894,6 +902,9 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="3">
+          <cell r="B3" t="str">
+            <v>0            Forecast</v>
+          </cell>
           <cell r="G3" t="str">
             <v>RT</v>
           </cell>
@@ -914,6 +925,11 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1028,7 +1044,7 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>90          Attente Rapport</v>
+            <v>90          Emission Rapport</v>
           </cell>
         </row>
         <row r="20">
@@ -1353,10 +1369,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1375,16 +1391,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:11" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="28"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1394,7 +1410,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1404,7 +1420,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1414,7 +1430,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="23"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1424,7 +1440,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1434,19 +1450,19 @@
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1470,8 +1486,8 @@
       <c r="C14" s="19"/>
       <c r="D14" s="18"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1481,8 +1497,8 @@
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1490,104 +1506,104 @@
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="21" spans="1:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="1:11" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="13"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1595,22 +1611,27 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:H26"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
-  <conditionalFormatting sqref="E21:F22">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F21="NO"</formula>
+  <conditionalFormatting sqref="A23:D23">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$D23="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23 F23">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$F23="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.35433070866141736" bottom="0.55118110236220474" header="0.11811023622047245" footer="0.31496062992125984"/>
@@ -1651,16 +1672,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:11" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="28"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1668,14 +1689,14 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="20"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1683,7 +1704,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1691,7 +1712,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1699,19 +1720,19 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1735,8 +1756,8 @@
       <c r="C14" s="19"/>
       <c r="D14" s="18"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1745,8 +1766,8 @@
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1755,8 +1776,8 @@
       <c r="C16" s="19"/>
       <c r="D16" s="18"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1770,16 +1791,16 @@
       <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="21" spans="1:11" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
@@ -1815,50 +1836,50 @@
         <v>14</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
